--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/ortalx_reshef_intel_com/Documents/Desktop/Desktop files/llm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{5BBBC458-6DB1-4B55-8EA1-CC9833410A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC32BE70-69E8-4D25-BC67-9F4F5E40CB14}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{5BBBC458-6DB1-4B55-8EA1-CC9833410A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81EA7CD4-699D-4001-8461-2830C749291E}"/>
   <bookViews>
     <workbookView xWindow="3410" yWindow="2030" windowWidth="14400" windowHeight="8170" xr2:uid="{36CDFDEB-03EC-4055-9EC0-111937EF1137}"/>
   </bookViews>
@@ -44,15 +44,6 @@
     <t>tool name</t>
   </si>
   <si>
-    <t>ADSax</t>
-  </si>
-  <si>
-    <t>ASKrs</t>
-  </si>
-  <si>
-    <t>BTFkj</t>
-  </si>
-  <si>
     <t>Camerun</t>
   </si>
   <si>
@@ -72,16 +63,31 @@
   </si>
   <si>
     <t>tool number per each company</t>
+  </si>
+  <si>
+    <t>tool1</t>
+  </si>
+  <si>
+    <t>tool2</t>
+  </si>
+  <si>
+    <t>tool3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -446,7 +452,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,27 +467,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -495,10 +501,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -512,10 +518,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -529,10 +535,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -546,10 +552,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -563,10 +569,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>78</v>
@@ -580,10 +586,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -597,10 +603,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -614,10 +620,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -631,6 +637,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E10" xr:uid="{21558931-9EA8-40FD-8538-84A73C820296}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>